--- a/database/industries/shoyande/gharn/product/quarterly.xlsx
+++ b/database/industries/shoyande/gharn/product/quarterly.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\gharn\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\shoyande\gharn\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="32">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>قرن-پدیده شیمی قرن</t>
@@ -36,9 +36,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,6 +48,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>سایر</t>
   </si>
   <si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>ریال / ریال</t>
+  </si>
+  <si>
+    <t>/ ریال</t>
   </si>
   <si>
     <t>متغرقه / ریال</t>
@@ -663,11 +666,11 @@
       <c r="E10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>12</v>
@@ -709,8 +712,8 @@
       <c r="E12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>12</v>
+      <c r="F12" s="9">
+        <v>0</v>
       </c>
       <c r="G12" s="9">
         <v>0</v>
@@ -731,19 +734,19 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>14097</v>
+        <v>8956</v>
       </c>
       <c r="F13" s="11">
-        <v>8956</v>
+        <v>11044</v>
       </c>
       <c r="G13" s="11">
-        <v>11044</v>
+        <v>8569</v>
       </c>
       <c r="H13" s="11">
-        <v>8569</v>
+        <v>12294</v>
       </c>
       <c r="I13" s="11">
-        <v>12294</v>
+        <v>10745</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -755,19 +758,19 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>13858</v>
+        <v>11582</v>
       </c>
       <c r="F14" s="9">
-        <v>11582</v>
+        <v>13875</v>
       </c>
       <c r="G14" s="9">
-        <v>13875</v>
+        <v>10939</v>
       </c>
       <c r="H14" s="9">
-        <v>10939</v>
+        <v>16554</v>
       </c>
       <c r="I14" s="9">
-        <v>16554</v>
+        <v>18375</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -779,19 +782,19 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>14294</v>
+        <v>12167</v>
       </c>
       <c r="F15" s="11">
-        <v>12167</v>
+        <v>13396</v>
       </c>
       <c r="G15" s="11">
-        <v>13396</v>
+        <v>9984</v>
       </c>
       <c r="H15" s="11">
-        <v>9984</v>
+        <v>13507</v>
       </c>
       <c r="I15" s="11">
-        <v>13507</v>
+        <v>15055</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -801,19 +804,19 @@
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>42249</v>
+        <v>32705</v>
       </c>
       <c r="F16" s="13">
-        <v>32705</v>
+        <v>38315</v>
       </c>
       <c r="G16" s="13">
-        <v>38315</v>
+        <v>29492</v>
       </c>
       <c r="H16" s="13">
-        <v>29492</v>
+        <v>42355</v>
       </c>
       <c r="I16" s="13">
-        <v>42355</v>
+        <v>44175</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -889,11 +892,11 @@
       <c r="E22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0</v>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>12</v>
@@ -935,8 +938,8 @@
       <c r="E24" s="9">
         <v>0</v>
       </c>
-      <c r="F24" s="9">
-        <v>0</v>
+      <c r="F24" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G24" s="9">
         <v>0</v>
@@ -981,19 +984,19 @@
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
-        <v>13403</v>
-      </c>
-      <c r="F26" s="9">
         <v>8900</v>
       </c>
+      <c r="F26" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G26" s="9">
-        <v>11817</v>
+        <v>7780</v>
       </c>
       <c r="H26" s="9">
-        <v>7780</v>
+        <v>11630</v>
       </c>
       <c r="I26" s="9">
-        <v>11630</v>
+        <v>10848</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -1005,19 +1008,19 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>12854</v>
-      </c>
-      <c r="F27" s="11">
         <v>11009</v>
       </c>
+      <c r="F27" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G27" s="11">
-        <v>14665</v>
+        <v>10309</v>
       </c>
       <c r="H27" s="11">
-        <v>10309</v>
+        <v>16972</v>
       </c>
       <c r="I27" s="11">
-        <v>16972</v>
+        <v>16982</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -1029,19 +1032,19 @@
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9">
-        <v>13754</v>
-      </c>
-      <c r="F28" s="9">
         <v>11508</v>
       </c>
+      <c r="F28" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G28" s="9">
-        <v>14647</v>
+        <v>9172</v>
       </c>
       <c r="H28" s="9">
-        <v>9172</v>
+        <v>13504</v>
       </c>
       <c r="I28" s="9">
-        <v>13504</v>
+        <v>14224</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
@@ -1051,19 +1054,19 @@
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15">
-        <v>40011</v>
+        <v>31417</v>
       </c>
       <c r="F29" s="15">
-        <v>31417</v>
+        <v>0</v>
       </c>
       <c r="G29" s="15">
-        <v>41129</v>
+        <v>27261</v>
       </c>
       <c r="H29" s="15">
-        <v>27261</v>
+        <v>42106</v>
       </c>
       <c r="I29" s="15">
-        <v>42106</v>
+        <v>42054</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -1139,11 +1142,11 @@
       <c r="E35" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="9">
-        <v>0</v>
+      <c r="F35" s="9">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>12</v>
@@ -1187,8 +1190,8 @@
       <c r="E37" s="9">
         <v>0</v>
       </c>
-      <c r="F37" s="9">
-        <v>0</v>
+      <c r="F37" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G37" s="9">
         <v>0</v>
@@ -1215,13 +1218,13 @@
         <v>12</v>
       </c>
       <c r="G38" s="11">
-        <v>45035</v>
+        <v>14639</v>
       </c>
       <c r="H38" s="11">
-        <v>14639</v>
+        <v>25600</v>
       </c>
       <c r="I38" s="11">
-        <v>25610</v>
+        <v>11917</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
@@ -1233,19 +1236,19 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
-        <v>3036753</v>
-      </c>
-      <c r="F39" s="9">
         <v>2156022</v>
       </c>
+      <c r="F39" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G39" s="9">
-        <v>2881372</v>
+        <v>2252259</v>
       </c>
       <c r="H39" s="9">
-        <v>2252259</v>
+        <v>3567485</v>
       </c>
       <c r="I39" s="9">
-        <v>3567485</v>
+        <v>3816268</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
@@ -1257,19 +1260,19 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>2325607</v>
-      </c>
-      <c r="F40" s="11">
         <v>2044809</v>
       </c>
+      <c r="F40" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G40" s="11">
-        <v>2729361</v>
+        <v>2202026</v>
       </c>
       <c r="H40" s="11">
-        <v>2202026</v>
+        <v>3928155</v>
       </c>
       <c r="I40" s="11">
-        <v>3928155</v>
+        <v>4365003</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -1281,19 +1284,19 @@
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
-        <v>1574638</v>
-      </c>
-      <c r="F41" s="9">
         <v>1214205</v>
       </c>
+      <c r="F41" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G41" s="9">
-        <v>1672790</v>
+        <v>1261504</v>
       </c>
       <c r="H41" s="9">
-        <v>1261504</v>
+        <v>1918400</v>
       </c>
       <c r="I41" s="9">
-        <v>1918400</v>
+        <v>2091987</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -1303,19 +1306,19 @@
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15">
-        <v>6936998</v>
+        <v>5415036</v>
       </c>
       <c r="F42" s="15">
-        <v>5415036</v>
+        <v>0</v>
       </c>
       <c r="G42" s="15">
-        <v>7328558</v>
+        <v>5730428</v>
       </c>
       <c r="H42" s="15">
-        <v>5730428</v>
+        <v>9439640</v>
       </c>
       <c r="I42" s="15">
-        <v>9439650</v>
+        <v>10285175</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -1433,7 +1436,7 @@
         <v>13</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9" t="s">
@@ -1457,7 +1460,7 @@
         <v>14</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11" t="s">
@@ -1485,19 +1488,19 @@
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
-        <v>226572633</v>
+        <v>237238336</v>
       </c>
       <c r="F52" s="9">
-        <v>237238336</v>
+        <v>243832783</v>
       </c>
       <c r="G52" s="9">
-        <v>243832783</v>
+        <v>289493445</v>
       </c>
       <c r="H52" s="9">
-        <v>289493445</v>
+        <v>306748495</v>
       </c>
       <c r="I52" s="9">
-        <v>306748495</v>
+        <v>351794617</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -1509,19 +1512,19 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>180924771</v>
+        <v>185739758</v>
       </c>
       <c r="F53" s="11">
-        <v>185739758</v>
+        <v>186113945</v>
       </c>
       <c r="G53" s="11">
-        <v>186113945</v>
+        <v>213602289</v>
       </c>
       <c r="H53" s="11">
-        <v>213602289</v>
+        <v>231449152</v>
       </c>
       <c r="I53" s="11">
-        <v>231449152</v>
+        <v>257037039</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -1533,19 +1536,19 @@
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9">
-        <v>114485822</v>
+        <v>105518815</v>
       </c>
       <c r="F54" s="9">
-        <v>105518815</v>
+        <v>114207005</v>
       </c>
       <c r="G54" s="9">
-        <v>114207005</v>
+        <v>137538596</v>
       </c>
       <c r="H54" s="9">
-        <v>137538596</v>
+        <v>142061611</v>
       </c>
       <c r="I54" s="9">
-        <v>142061611</v>
+        <v>147074452</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -1580,7 +1583,7 @@
     </row>
     <row r="58" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -1621,11 +1624,11 @@
       <c r="E60" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F60" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="9">
-        <v>0</v>
+      <c r="F60" s="9">
+        <v>0</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>12</v>
@@ -1693,17 +1696,17 @@
       <c r="E63" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F63" s="11" t="s">
-        <v>12</v>
+      <c r="F63" s="11">
+        <v>-33207</v>
       </c>
       <c r="G63" s="11">
-        <v>-33207</v>
+        <v>-13000</v>
       </c>
       <c r="H63" s="11">
-        <v>-13000</v>
+        <v>-14458</v>
       </c>
       <c r="I63" s="11">
-        <v>-13201</v>
+        <v>-6493</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
@@ -1715,19 +1718,19 @@
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
-        <v>-2002846</v>
+        <v>-1529789</v>
       </c>
       <c r="F64" s="9">
-        <v>-1529789</v>
+        <v>-2066245</v>
       </c>
       <c r="G64" s="9">
-        <v>-2066245</v>
+        <v>-1511650</v>
       </c>
       <c r="H64" s="9">
-        <v>-1511650</v>
+        <v>-2291010</v>
       </c>
       <c r="I64" s="9">
-        <v>-2270688</v>
+        <v>-2241112</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
@@ -1739,19 +1742,19 @@
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
-        <v>-1844450</v>
+        <v>-1675511</v>
       </c>
       <c r="F65" s="11">
-        <v>-1675511</v>
+        <v>-2216553</v>
       </c>
       <c r="G65" s="11">
-        <v>-2216553</v>
+        <v>-1756196</v>
       </c>
       <c r="H65" s="11">
-        <v>-1756196</v>
+        <v>-2952514</v>
       </c>
       <c r="I65" s="11">
-        <v>-2930075</v>
+        <v>-2917040</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
@@ -1763,19 +1766,19 @@
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9">
-        <v>-1290261</v>
+        <v>-1043142</v>
       </c>
       <c r="F66" s="9">
-        <v>-1043142</v>
+        <v>-1333897</v>
       </c>
       <c r="G66" s="9">
-        <v>-1333897</v>
+        <v>-1005881</v>
       </c>
       <c r="H66" s="9">
-        <v>-1005881</v>
+        <v>-1473672</v>
       </c>
       <c r="I66" s="9">
-        <v>-1468249</v>
+        <v>-1480067</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
@@ -1785,19 +1788,19 @@
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15">
-        <v>-5137557</v>
+        <v>-4248442</v>
       </c>
       <c r="F67" s="15">
-        <v>-4248442</v>
+        <v>-5649902</v>
       </c>
       <c r="G67" s="15">
-        <v>-5649902</v>
+        <v>-4286727</v>
       </c>
       <c r="H67" s="15">
-        <v>-4286727</v>
+        <v>-6731654</v>
       </c>
       <c r="I67" s="15">
-        <v>-6682213</v>
+        <v>-6644712</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
@@ -1832,7 +1835,7 @@
     </row>
     <row r="71" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -1873,11 +1876,11 @@
       <c r="E73" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F73" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="9">
-        <v>0</v>
+      <c r="F73" s="9">
+        <v>0</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="H73" s="9" t="s">
         <v>12</v>
@@ -1945,17 +1948,17 @@
       <c r="E76" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="11" t="s">
-        <v>12</v>
+      <c r="F76" s="11">
+        <v>11828</v>
       </c>
       <c r="G76" s="11">
-        <v>11828</v>
+        <v>1639</v>
       </c>
       <c r="H76" s="11">
-        <v>1639</v>
+        <v>11142</v>
       </c>
       <c r="I76" s="11">
-        <v>12409</v>
+        <v>5424</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
@@ -1967,19 +1970,19 @@
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
-        <v>1033907</v>
+        <v>626233</v>
       </c>
       <c r="F77" s="9">
-        <v>626233</v>
+        <v>815127</v>
       </c>
       <c r="G77" s="9">
-        <v>815127</v>
+        <v>740609</v>
       </c>
       <c r="H77" s="9">
-        <v>740609</v>
+        <v>1276475</v>
       </c>
       <c r="I77" s="9">
-        <v>1296797</v>
+        <v>1575156</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
@@ -1991,19 +1994,19 @@
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>481157</v>
+        <v>369298</v>
       </c>
       <c r="F78" s="11">
-        <v>369298</v>
+        <v>512808</v>
       </c>
       <c r="G78" s="11">
-        <v>512808</v>
+        <v>445830</v>
       </c>
       <c r="H78" s="11">
-        <v>445830</v>
+        <v>975641</v>
       </c>
       <c r="I78" s="11">
-        <v>998080</v>
+        <v>1447963</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
@@ -2015,19 +2018,19 @@
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9">
-        <v>284377</v>
+        <v>171063</v>
       </c>
       <c r="F79" s="9">
-        <v>171063</v>
+        <v>338893</v>
       </c>
       <c r="G79" s="9">
-        <v>338893</v>
+        <v>255623</v>
       </c>
       <c r="H79" s="9">
-        <v>255623</v>
+        <v>444728</v>
       </c>
       <c r="I79" s="9">
-        <v>450151</v>
+        <v>611920</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
@@ -2037,19 +2040,19 @@
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
       <c r="E80" s="15">
-        <v>1799441</v>
+        <v>1166594</v>
       </c>
       <c r="F80" s="15">
-        <v>1166594</v>
+        <v>1678656</v>
       </c>
       <c r="G80" s="15">
-        <v>1678656</v>
+        <v>1443701</v>
       </c>
       <c r="H80" s="15">
-        <v>1443701</v>
+        <v>2707986</v>
       </c>
       <c r="I80" s="15">
-        <v>2757437</v>
+        <v>3640463</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/shoyande/gharn/product/quarterly.xlsx
+++ b/database/industries/shoyande/gharn/product/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\gharn\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5DDB9A-96BF-421F-A959-21AD1E224638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="32">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>قرن-پدیده شیمی قرن</t>
@@ -36,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,6 +49,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>سایر</t>
   </si>
   <si>
@@ -103,6 +104,9 @@
   </si>
   <si>
     <t>ریال / ریال</t>
+  </si>
+  <si>
+    <t>/ ریال</t>
   </si>
   <si>
     <t>متغرقه / ریال</t>
@@ -117,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -287,7 +291,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -299,7 +303,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -346,6 +350,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -381,6 +402,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -532,17 +570,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -552,7 +590,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -564,7 +602,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -576,7 +614,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -586,7 +624,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -598,7 +636,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -610,7 +648,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -620,7 +658,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -642,7 +680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -652,7 +690,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -663,11 +701,11 @@
       <c r="E10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>12</v>
@@ -676,7 +714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -698,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -709,8 +747,8 @@
       <c r="E12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>12</v>
+      <c r="F12" s="9">
+        <v>0</v>
       </c>
       <c r="G12" s="9">
         <v>0</v>
@@ -722,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
@@ -731,22 +769,22 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>14097</v>
+        <v>8956</v>
       </c>
       <c r="F13" s="11">
-        <v>8956</v>
+        <v>11044</v>
       </c>
       <c r="G13" s="11">
-        <v>11044</v>
+        <v>8569</v>
       </c>
       <c r="H13" s="11">
-        <v>8569</v>
+        <v>12294</v>
       </c>
       <c r="I13" s="11">
-        <v>12294</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10745</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
@@ -755,22 +793,22 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>13858</v>
+        <v>11582</v>
       </c>
       <c r="F14" s="9">
-        <v>11582</v>
+        <v>13875</v>
       </c>
       <c r="G14" s="9">
-        <v>13875</v>
+        <v>10939</v>
       </c>
       <c r="H14" s="9">
-        <v>10939</v>
+        <v>16554</v>
       </c>
       <c r="I14" s="9">
-        <v>16554</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18375</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
@@ -779,44 +817,44 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>14294</v>
+        <v>12167</v>
       </c>
       <c r="F15" s="11">
-        <v>12167</v>
+        <v>13396</v>
       </c>
       <c r="G15" s="11">
-        <v>13396</v>
+        <v>9984</v>
       </c>
       <c r="H15" s="11">
-        <v>9984</v>
+        <v>13507</v>
       </c>
       <c r="I15" s="11">
-        <v>13507</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15055</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>42249</v>
+        <v>32705</v>
       </c>
       <c r="F16" s="13">
-        <v>32705</v>
+        <v>38315</v>
       </c>
       <c r="G16" s="13">
-        <v>38315</v>
+        <v>29492</v>
       </c>
       <c r="H16" s="13">
-        <v>29492</v>
+        <v>42355</v>
       </c>
       <c r="I16" s="13">
-        <v>42355</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>44175</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -826,7 +864,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -836,7 +874,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -846,7 +884,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>20</v>
       </c>
@@ -868,7 +906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -878,7 +916,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>10</v>
       </c>
@@ -889,11 +927,11 @@
       <c r="E22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0</v>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>12</v>
@@ -902,7 +940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
@@ -926,7 +964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>13</v>
       </c>
@@ -935,8 +973,8 @@
       <c r="E24" s="9">
         <v>0</v>
       </c>
-      <c r="F24" s="9">
-        <v>0</v>
+      <c r="F24" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G24" s="9">
         <v>0</v>
@@ -948,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>14</v>
       </c>
@@ -972,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>16</v>
       </c>
@@ -981,22 +1019,22 @@
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
-        <v>13403</v>
-      </c>
-      <c r="F26" s="9">
         <v>8900</v>
       </c>
+      <c r="F26" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G26" s="9">
-        <v>11817</v>
+        <v>7780</v>
       </c>
       <c r="H26" s="9">
-        <v>7780</v>
+        <v>11630</v>
       </c>
       <c r="I26" s="9">
-        <v>11630</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10848</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>17</v>
       </c>
@@ -1005,22 +1043,22 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>12854</v>
-      </c>
-      <c r="F27" s="11">
         <v>11009</v>
       </c>
+      <c r="F27" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G27" s="11">
-        <v>14665</v>
+        <v>10309</v>
       </c>
       <c r="H27" s="11">
-        <v>10309</v>
+        <v>16972</v>
       </c>
       <c r="I27" s="11">
-        <v>16972</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16982</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>18</v>
       </c>
@@ -1029,44 +1067,44 @@
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9">
-        <v>13754</v>
-      </c>
-      <c r="F28" s="9">
         <v>11508</v>
       </c>
+      <c r="F28" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G28" s="9">
-        <v>14647</v>
+        <v>9172</v>
       </c>
       <c r="H28" s="9">
-        <v>9172</v>
+        <v>13504</v>
       </c>
       <c r="I28" s="9">
-        <v>13504</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14224</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15">
-        <v>40011</v>
+        <v>31417</v>
       </c>
       <c r="F29" s="15">
-        <v>31417</v>
+        <v>0</v>
       </c>
       <c r="G29" s="15">
-        <v>41129</v>
+        <v>27261</v>
       </c>
       <c r="H29" s="15">
-        <v>27261</v>
+        <v>42106</v>
       </c>
       <c r="I29" s="15">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>42054</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1076,7 +1114,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1086,7 +1124,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1096,7 +1134,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>23</v>
       </c>
@@ -1118,7 +1156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1128,7 +1166,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>10</v>
       </c>
@@ -1139,11 +1177,11 @@
       <c r="E35" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="9">
-        <v>0</v>
+      <c r="F35" s="9">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>12</v>
@@ -1152,7 +1190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>21</v>
       </c>
@@ -1176,7 +1214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>13</v>
       </c>
@@ -1187,8 +1225,8 @@
       <c r="E37" s="9">
         <v>0</v>
       </c>
-      <c r="F37" s="9">
-        <v>0</v>
+      <c r="F37" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G37" s="9">
         <v>0</v>
@@ -1200,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>14</v>
       </c>
@@ -1215,16 +1253,16 @@
         <v>12</v>
       </c>
       <c r="G38" s="11">
-        <v>45035</v>
+        <v>14639</v>
       </c>
       <c r="H38" s="11">
-        <v>14639</v>
+        <v>25600</v>
       </c>
       <c r="I38" s="11">
-        <v>25610</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11917</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>16</v>
       </c>
@@ -1233,22 +1271,22 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
-        <v>3036753</v>
-      </c>
-      <c r="F39" s="9">
         <v>2156022</v>
       </c>
+      <c r="F39" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G39" s="9">
-        <v>2881372</v>
+        <v>2252259</v>
       </c>
       <c r="H39" s="9">
-        <v>2252259</v>
+        <v>3567485</v>
       </c>
       <c r="I39" s="9">
-        <v>3567485</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3816268</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>17</v>
       </c>
@@ -1257,22 +1295,22 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>2325607</v>
-      </c>
-      <c r="F40" s="11">
         <v>2044809</v>
       </c>
+      <c r="F40" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G40" s="11">
-        <v>2729361</v>
+        <v>2202026</v>
       </c>
       <c r="H40" s="11">
-        <v>2202026</v>
+        <v>3928155</v>
       </c>
       <c r="I40" s="11">
-        <v>3928155</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4365003</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>18</v>
       </c>
@@ -1281,44 +1319,44 @@
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
-        <v>1574638</v>
-      </c>
-      <c r="F41" s="9">
         <v>1214205</v>
       </c>
+      <c r="F41" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G41" s="9">
-        <v>1672790</v>
+        <v>1261504</v>
       </c>
       <c r="H41" s="9">
-        <v>1261504</v>
+        <v>1918400</v>
       </c>
       <c r="I41" s="9">
-        <v>1918400</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2091987</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15">
-        <v>6936998</v>
+        <v>5415036</v>
       </c>
       <c r="F42" s="15">
-        <v>5415036</v>
+        <v>0</v>
       </c>
       <c r="G42" s="15">
-        <v>7328558</v>
+        <v>5730428</v>
       </c>
       <c r="H42" s="15">
-        <v>5730428</v>
+        <v>9439640</v>
       </c>
       <c r="I42" s="15">
-        <v>9439650</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10285175</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1328,7 +1366,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1338,7 +1376,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1348,7 +1386,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>25</v>
       </c>
@@ -1370,7 +1408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1380,7 +1418,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>10</v>
       </c>
@@ -1404,7 +1442,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>21</v>
       </c>
@@ -1428,12 +1466,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9" t="s">
@@ -1452,12 +1490,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11" t="s">
@@ -1476,7 +1514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>16</v>
       </c>
@@ -1485,22 +1523,22 @@
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
-        <v>226572633</v>
+        <v>237238336</v>
       </c>
       <c r="F52" s="9">
-        <v>237238336</v>
+        <v>243832783</v>
       </c>
       <c r="G52" s="9">
-        <v>243832783</v>
+        <v>289493445</v>
       </c>
       <c r="H52" s="9">
-        <v>289493445</v>
+        <v>306748495</v>
       </c>
       <c r="I52" s="9">
-        <v>306748495</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>351794617</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>17</v>
       </c>
@@ -1509,22 +1547,22 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>180924771</v>
+        <v>185739758</v>
       </c>
       <c r="F53" s="11">
-        <v>185739758</v>
+        <v>186113945</v>
       </c>
       <c r="G53" s="11">
-        <v>186113945</v>
+        <v>213602289</v>
       </c>
       <c r="H53" s="11">
-        <v>213602289</v>
+        <v>231449152</v>
       </c>
       <c r="I53" s="11">
-        <v>231449152</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>257037039</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>18</v>
       </c>
@@ -1533,22 +1571,22 @@
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9">
-        <v>114485822</v>
+        <v>105518815</v>
       </c>
       <c r="F54" s="9">
-        <v>105518815</v>
+        <v>114207005</v>
       </c>
       <c r="G54" s="9">
-        <v>114207005</v>
+        <v>137538596</v>
       </c>
       <c r="H54" s="9">
-        <v>137538596</v>
+        <v>142061611</v>
       </c>
       <c r="I54" s="9">
-        <v>142061611</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>147074452</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1558,7 +1596,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1568,7 +1606,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1578,9 +1616,9 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -1600,7 +1638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1610,7 +1648,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>10</v>
       </c>
@@ -1621,11 +1659,11 @@
       <c r="E60" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F60" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="9">
-        <v>0</v>
+      <c r="F60" s="9">
+        <v>0</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>12</v>
@@ -1634,7 +1672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>21</v>
       </c>
@@ -1658,7 +1696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>13</v>
       </c>
@@ -1682,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>14</v>
       </c>
@@ -1693,20 +1731,20 @@
       <c r="E63" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F63" s="11" t="s">
-        <v>12</v>
+      <c r="F63" s="11">
+        <v>-33207</v>
       </c>
       <c r="G63" s="11">
-        <v>-33207</v>
+        <v>-13000</v>
       </c>
       <c r="H63" s="11">
-        <v>-13000</v>
+        <v>-14458</v>
       </c>
       <c r="I63" s="11">
-        <v>-13201</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-6493</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>16</v>
       </c>
@@ -1715,22 +1753,22 @@
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
-        <v>-2002846</v>
+        <v>-1529789</v>
       </c>
       <c r="F64" s="9">
-        <v>-1529789</v>
+        <v>-2066245</v>
       </c>
       <c r="G64" s="9">
-        <v>-2066245</v>
+        <v>-1511650</v>
       </c>
       <c r="H64" s="9">
-        <v>-1511650</v>
+        <v>-2291010</v>
       </c>
       <c r="I64" s="9">
-        <v>-2270688</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2241112</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>17</v>
       </c>
@@ -1739,22 +1777,22 @@
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
-        <v>-1844450</v>
+        <v>-1675511</v>
       </c>
       <c r="F65" s="11">
-        <v>-1675511</v>
+        <v>-2216553</v>
       </c>
       <c r="G65" s="11">
-        <v>-2216553</v>
+        <v>-1756196</v>
       </c>
       <c r="H65" s="11">
-        <v>-1756196</v>
+        <v>-2952514</v>
       </c>
       <c r="I65" s="11">
-        <v>-2930075</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2917040</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>18</v>
       </c>
@@ -1763,44 +1801,44 @@
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9">
-        <v>-1290261</v>
+        <v>-1043142</v>
       </c>
       <c r="F66" s="9">
-        <v>-1043142</v>
+        <v>-1333897</v>
       </c>
       <c r="G66" s="9">
-        <v>-1333897</v>
+        <v>-1005881</v>
       </c>
       <c r="H66" s="9">
-        <v>-1005881</v>
+        <v>-1473672</v>
       </c>
       <c r="I66" s="9">
-        <v>-1468249</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1480067</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15">
-        <v>-5137557</v>
+        <v>-4248442</v>
       </c>
       <c r="F67" s="15">
-        <v>-4248442</v>
+        <v>-5649902</v>
       </c>
       <c r="G67" s="15">
-        <v>-5649902</v>
+        <v>-4286727</v>
       </c>
       <c r="H67" s="15">
-        <v>-4286727</v>
+        <v>-6731654</v>
       </c>
       <c r="I67" s="15">
-        <v>-6682213</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-6644712</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1810,7 +1848,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1820,7 +1858,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1830,9 +1868,9 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -1852,7 +1890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1862,7 +1900,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>10</v>
       </c>
@@ -1873,11 +1911,11 @@
       <c r="E73" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F73" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="9">
-        <v>0</v>
+      <c r="F73" s="9">
+        <v>0</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="H73" s="9" t="s">
         <v>12</v>
@@ -1886,7 +1924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>21</v>
       </c>
@@ -1910,7 +1948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>13</v>
       </c>
@@ -1934,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>14</v>
       </c>
@@ -1945,20 +1983,20 @@
       <c r="E76" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="11" t="s">
-        <v>12</v>
+      <c r="F76" s="11">
+        <v>11828</v>
       </c>
       <c r="G76" s="11">
-        <v>11828</v>
+        <v>1639</v>
       </c>
       <c r="H76" s="11">
-        <v>1639</v>
+        <v>11142</v>
       </c>
       <c r="I76" s="11">
-        <v>12409</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5424</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>16</v>
       </c>
@@ -1967,22 +2005,22 @@
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
-        <v>1033907</v>
+        <v>626233</v>
       </c>
       <c r="F77" s="9">
-        <v>626233</v>
+        <v>815127</v>
       </c>
       <c r="G77" s="9">
-        <v>815127</v>
+        <v>740609</v>
       </c>
       <c r="H77" s="9">
-        <v>740609</v>
+        <v>1276475</v>
       </c>
       <c r="I77" s="9">
-        <v>1296797</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1575156</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>17</v>
       </c>
@@ -1991,22 +2029,22 @@
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>481157</v>
+        <v>369298</v>
       </c>
       <c r="F78" s="11">
-        <v>369298</v>
+        <v>512808</v>
       </c>
       <c r="G78" s="11">
-        <v>512808</v>
+        <v>445830</v>
       </c>
       <c r="H78" s="11">
-        <v>445830</v>
+        <v>975641</v>
       </c>
       <c r="I78" s="11">
-        <v>998080</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1447963</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>18</v>
       </c>
@@ -2015,41 +2053,41 @@
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9">
-        <v>284377</v>
+        <v>171063</v>
       </c>
       <c r="F79" s="9">
-        <v>171063</v>
+        <v>338893</v>
       </c>
       <c r="G79" s="9">
-        <v>338893</v>
+        <v>255623</v>
       </c>
       <c r="H79" s="9">
-        <v>255623</v>
+        <v>444728</v>
       </c>
       <c r="I79" s="9">
-        <v>450151</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>611920</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
       <c r="E80" s="15">
-        <v>1799441</v>
+        <v>1166594</v>
       </c>
       <c r="F80" s="15">
-        <v>1166594</v>
+        <v>1678656</v>
       </c>
       <c r="G80" s="15">
-        <v>1678656</v>
+        <v>1443701</v>
       </c>
       <c r="H80" s="15">
-        <v>1443701</v>
+        <v>2707986</v>
       </c>
       <c r="I80" s="15">
-        <v>2757437</v>
+        <v>3640463</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/shoyande/gharn/product/quarterly.xlsx
+++ b/database/industries/shoyande/gharn/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\gharn\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\gharn\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5DDB9A-96BF-421F-A959-21AD1E224638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD61F76-A8D3-4F07-A31D-2FB8EC6F9C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="37">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار تولید</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -571,16 +586,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I80"/>
+  <dimension ref="B1:N80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -589,8 +604,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -601,8 +621,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -613,8 +638,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -623,8 +653,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -635,8 +670,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -647,8 +687,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -657,8 +702,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -679,8 +729,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -689,172 +754,282 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
+      <c r="E11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I11" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>12669</v>
+      </c>
+      <c r="F13" s="11">
+        <v>15533</v>
+      </c>
+      <c r="G13" s="11">
+        <v>15681</v>
+      </c>
+      <c r="H13" s="11">
+        <v>7006</v>
+      </c>
+      <c r="I13" s="11">
+        <v>14097</v>
+      </c>
+      <c r="J13" s="11">
         <v>8956</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>11044</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>8569</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>12294</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>10745</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
+        <v>10765</v>
+      </c>
+      <c r="F14" s="9">
+        <v>12530</v>
+      </c>
+      <c r="G14" s="9">
+        <v>14994</v>
+      </c>
+      <c r="H14" s="9">
+        <v>7032</v>
+      </c>
+      <c r="I14" s="9">
+        <v>13858</v>
+      </c>
+      <c r="J14" s="9">
         <v>11582</v>
       </c>
-      <c r="F14" s="9">
+      <c r="K14" s="9">
         <v>13875</v>
       </c>
-      <c r="G14" s="9">
+      <c r="L14" s="9">
         <v>10939</v>
       </c>
-      <c r="H14" s="9">
+      <c r="M14" s="9">
         <v>16554</v>
       </c>
-      <c r="I14" s="9">
+      <c r="N14" s="9">
         <v>18375</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
+        <v>9896</v>
+      </c>
+      <c r="F15" s="11">
+        <v>10844</v>
+      </c>
+      <c r="G15" s="11">
+        <v>16269</v>
+      </c>
+      <c r="H15" s="11">
+        <v>9014</v>
+      </c>
+      <c r="I15" s="11">
+        <v>14294</v>
+      </c>
+      <c r="J15" s="11">
         <v>12167</v>
       </c>
-      <c r="F15" s="11">
+      <c r="K15" s="11">
         <v>13396</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>9984</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>13507</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>15055</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
+        <v>33330</v>
+      </c>
+      <c r="F16" s="13">
+        <v>38907</v>
+      </c>
+      <c r="G16" s="13">
+        <v>46944</v>
+      </c>
+      <c r="H16" s="13">
+        <v>23052</v>
+      </c>
+      <c r="I16" s="13">
+        <v>42249</v>
+      </c>
+      <c r="J16" s="13">
         <v>32705</v>
       </c>
-      <c r="F16" s="13">
+      <c r="K16" s="13">
         <v>38315</v>
       </c>
-      <c r="G16" s="13">
+      <c r="L16" s="13">
         <v>29492</v>
       </c>
-      <c r="H16" s="13">
+      <c r="M16" s="13">
         <v>42355</v>
       </c>
-      <c r="I16" s="13">
+      <c r="N16" s="13">
         <v>44175</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -863,8 +1038,13 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -873,8 +1053,13 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -883,10 +1068,15 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -905,8 +1095,23 @@
       <c r="I20" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -915,196 +1120,321 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>12</v>
+      <c r="E23" s="11">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9">
         <v>0</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>12</v>
+      <c r="F24" s="9">
+        <v>0</v>
       </c>
       <c r="G24" s="9">
         <v>0</v>
       </c>
-      <c r="H24" s="9">
-        <v>0</v>
+      <c r="H24" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I24" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="9">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="11">
-        <v>0</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+      <c r="N25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
+        <v>13468</v>
+      </c>
+      <c r="F26" s="9">
+        <v>14663</v>
+      </c>
+      <c r="G26" s="9">
+        <v>16593</v>
+      </c>
+      <c r="H26" s="9">
+        <v>7060</v>
+      </c>
+      <c r="I26" s="9">
+        <v>13403</v>
+      </c>
+      <c r="J26" s="9">
         <v>8900</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="9">
+      <c r="K26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="9">
         <v>7780</v>
       </c>
-      <c r="H26" s="9">
+      <c r="M26" s="9">
         <v>11630</v>
       </c>
-      <c r="I26" s="9">
+      <c r="N26" s="9">
         <v>10848</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
+        <v>10888</v>
+      </c>
+      <c r="F27" s="11">
+        <v>12579</v>
+      </c>
+      <c r="G27" s="11">
+        <v>15275</v>
+      </c>
+      <c r="H27" s="11">
+        <v>7170</v>
+      </c>
+      <c r="I27" s="11">
+        <v>12854</v>
+      </c>
+      <c r="J27" s="11">
         <v>11009</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="11">
+      <c r="K27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="11">
         <v>10309</v>
       </c>
-      <c r="H27" s="11">
+      <c r="M27" s="11">
         <v>16972</v>
       </c>
-      <c r="I27" s="11">
+      <c r="N27" s="11">
         <v>16982</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9">
+        <v>9835</v>
+      </c>
+      <c r="F28" s="9">
+        <v>10311</v>
+      </c>
+      <c r="G28" s="9">
+        <v>15132</v>
+      </c>
+      <c r="H28" s="9">
+        <v>8444</v>
+      </c>
+      <c r="I28" s="9">
+        <v>13754</v>
+      </c>
+      <c r="J28" s="9">
         <v>11508</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="9">
+      <c r="K28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="9">
         <v>9172</v>
       </c>
-      <c r="H28" s="9">
+      <c r="M28" s="9">
         <v>13504</v>
       </c>
-      <c r="I28" s="9">
+      <c r="N28" s="9">
         <v>14224</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15">
+        <v>34191</v>
+      </c>
+      <c r="F29" s="15">
+        <v>37553</v>
+      </c>
+      <c r="G29" s="15">
+        <v>47000</v>
+      </c>
+      <c r="H29" s="15">
+        <v>22674</v>
+      </c>
+      <c r="I29" s="15">
+        <v>40011</v>
+      </c>
+      <c r="J29" s="15">
         <v>31417</v>
       </c>
-      <c r="F29" s="15">
-        <v>0</v>
-      </c>
-      <c r="G29" s="15">
+      <c r="K29" s="15">
+        <v>0</v>
+      </c>
+      <c r="L29" s="15">
         <v>27261</v>
       </c>
-      <c r="H29" s="15">
+      <c r="M29" s="15">
         <v>42106</v>
       </c>
-      <c r="I29" s="15">
+      <c r="N29" s="15">
         <v>42054</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1113,8 +1443,13 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1123,8 +1458,13 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1133,10 +1473,15 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1155,8 +1500,23 @@
       <c r="I33" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1165,198 +1525,323 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="9">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>12</v>
+      <c r="E36" s="11">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
         <v>0</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>12</v>
+      <c r="F37" s="9">
+        <v>0</v>
       </c>
       <c r="G37" s="9">
         <v>0</v>
       </c>
-      <c r="H37" s="9">
-        <v>0</v>
+      <c r="H37" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I37" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="9">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
+        <v>0</v>
+      </c>
+      <c r="N37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="11">
+        <v>17</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="11">
         <v>14639</v>
       </c>
-      <c r="H38" s="11">
+      <c r="M38" s="11">
         <v>25600</v>
       </c>
-      <c r="I38" s="11">
+      <c r="N38" s="11">
         <v>11917</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
+        <v>1763825</v>
+      </c>
+      <c r="F39" s="9">
+        <v>2225747</v>
+      </c>
+      <c r="G39" s="9">
+        <v>2727958</v>
+      </c>
+      <c r="H39" s="9">
+        <v>1476939</v>
+      </c>
+      <c r="I39" s="9">
+        <v>3036753</v>
+      </c>
+      <c r="J39" s="9">
         <v>2156022</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="9">
+      <c r="K39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="9">
         <v>2252259</v>
       </c>
-      <c r="H39" s="9">
+      <c r="M39" s="9">
         <v>3567485</v>
       </c>
-      <c r="I39" s="9">
+      <c r="N39" s="9">
         <v>3816268</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
+        <v>1269489</v>
+      </c>
+      <c r="F40" s="11">
+        <v>1878457</v>
+      </c>
+      <c r="G40" s="11">
+        <v>2224884</v>
+      </c>
+      <c r="H40" s="11">
+        <v>1100332</v>
+      </c>
+      <c r="I40" s="11">
+        <v>2325607</v>
+      </c>
+      <c r="J40" s="11">
         <v>2044809</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="11">
+      <c r="K40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="11">
         <v>2202026</v>
       </c>
-      <c r="H40" s="11">
+      <c r="M40" s="11">
         <v>3928155</v>
       </c>
-      <c r="I40" s="11">
+      <c r="N40" s="11">
         <v>4365003</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
+        <v>706170</v>
+      </c>
+      <c r="F41" s="9">
+        <v>883149</v>
+      </c>
+      <c r="G41" s="9">
+        <v>1441198</v>
+      </c>
+      <c r="H41" s="9">
+        <v>854318</v>
+      </c>
+      <c r="I41" s="9">
+        <v>1574638</v>
+      </c>
+      <c r="J41" s="9">
         <v>1214205</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="9">
+      <c r="K41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="9">
         <v>1261504</v>
       </c>
-      <c r="H41" s="9">
+      <c r="M41" s="9">
         <v>1918400</v>
       </c>
-      <c r="I41" s="9">
+      <c r="N41" s="9">
         <v>2091987</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15">
+        <v>3739484</v>
+      </c>
+      <c r="F42" s="15">
+        <v>4987353</v>
+      </c>
+      <c r="G42" s="15">
+        <v>6394040</v>
+      </c>
+      <c r="H42" s="15">
+        <v>3431589</v>
+      </c>
+      <c r="I42" s="15">
+        <v>6936998</v>
+      </c>
+      <c r="J42" s="15">
         <v>5415036</v>
       </c>
-      <c r="F42" s="15">
-        <v>0</v>
-      </c>
-      <c r="G42" s="15">
+      <c r="K42" s="15">
+        <v>0</v>
+      </c>
+      <c r="L42" s="15">
         <v>5730428</v>
       </c>
-      <c r="H42" s="15">
+      <c r="M42" s="15">
         <v>9439640</v>
       </c>
-      <c r="I42" s="15">
+      <c r="N42" s="15">
         <v>10285175</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1365,8 +1850,13 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1375,8 +1865,13 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1385,10 +1880,15 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1407,8 +1907,23 @@
       <c r="I46" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1417,176 +1932,286 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
+        <v>130964137</v>
+      </c>
+      <c r="F52" s="9">
+        <v>151793426</v>
+      </c>
+      <c r="G52" s="9">
+        <v>164404146</v>
+      </c>
+      <c r="H52" s="9">
+        <v>209198159</v>
+      </c>
+      <c r="I52" s="9">
+        <v>226572633</v>
+      </c>
+      <c r="J52" s="9">
         <v>237238336</v>
       </c>
-      <c r="F52" s="9">
+      <c r="K52" s="9">
         <v>243832783</v>
       </c>
-      <c r="G52" s="9">
+      <c r="L52" s="9">
         <v>289493445</v>
       </c>
-      <c r="H52" s="9">
+      <c r="M52" s="9">
         <v>306748495</v>
       </c>
-      <c r="I52" s="9">
+      <c r="N52" s="9">
         <v>351794617</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
+        <v>116595242</v>
+      </c>
+      <c r="F53" s="11">
+        <v>149332777</v>
+      </c>
+      <c r="G53" s="11">
+        <v>145655254</v>
+      </c>
+      <c r="H53" s="11">
+        <v>153463319</v>
+      </c>
+      <c r="I53" s="11">
+        <v>180924771</v>
+      </c>
+      <c r="J53" s="11">
         <v>185739758</v>
       </c>
-      <c r="F53" s="11">
+      <c r="K53" s="11">
         <v>186113945</v>
       </c>
-      <c r="G53" s="11">
+      <c r="L53" s="11">
         <v>213602289</v>
       </c>
-      <c r="H53" s="11">
+      <c r="M53" s="11">
         <v>231449152</v>
       </c>
-      <c r="I53" s="11">
+      <c r="N53" s="11">
         <v>257037039</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9">
+        <v>71801729</v>
+      </c>
+      <c r="F54" s="9">
+        <v>85651149</v>
+      </c>
+      <c r="G54" s="9">
+        <v>95241739</v>
+      </c>
+      <c r="H54" s="9">
+        <v>101174562</v>
+      </c>
+      <c r="I54" s="9">
+        <v>114485822</v>
+      </c>
+      <c r="J54" s="9">
         <v>105518815</v>
       </c>
-      <c r="F54" s="9">
+      <c r="K54" s="9">
         <v>114207005</v>
       </c>
-      <c r="G54" s="9">
+      <c r="L54" s="9">
         <v>137538596</v>
       </c>
-      <c r="H54" s="9">
+      <c r="M54" s="9">
         <v>142061611</v>
       </c>
-      <c r="I54" s="9">
+      <c r="N54" s="9">
         <v>147074452</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1595,8 +2220,13 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1605,8 +2235,13 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1615,10 +2250,15 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -1637,8 +2277,23 @@
       <c r="I58" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1647,61 +2302,96 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="9">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" s="9">
+        <v>0</v>
+      </c>
+      <c r="L60" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N60" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>12</v>
+      <c r="E61" s="11">
+        <v>0</v>
+      </c>
+      <c r="F61" s="11">
+        <v>0</v>
+      </c>
+      <c r="G61" s="11">
+        <v>0</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N61" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9">
@@ -1713,132 +2403,222 @@
       <c r="G62" s="9">
         <v>0</v>
       </c>
-      <c r="H62" s="9">
-        <v>0</v>
+      <c r="H62" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I62" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="9">
+        <v>0</v>
+      </c>
+      <c r="K62" s="9">
+        <v>0</v>
+      </c>
+      <c r="L62" s="9">
+        <v>0</v>
+      </c>
+      <c r="M62" s="9">
+        <v>0</v>
+      </c>
+      <c r="N62" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="11">
+        <v>17</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" s="11">
         <v>-33207</v>
       </c>
-      <c r="G63" s="11">
+      <c r="L63" s="11">
         <v>-13000</v>
       </c>
-      <c r="H63" s="11">
+      <c r="M63" s="11">
         <v>-14458</v>
       </c>
-      <c r="I63" s="11">
+      <c r="N63" s="11">
         <v>-6493</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
+        <v>-1134991</v>
+      </c>
+      <c r="F64" s="9">
+        <v>-1536092</v>
+      </c>
+      <c r="G64" s="9">
+        <v>-2179035</v>
+      </c>
+      <c r="H64" s="9">
+        <v>-1093371</v>
+      </c>
+      <c r="I64" s="9">
+        <v>-2002846</v>
+      </c>
+      <c r="J64" s="9">
         <v>-1529789</v>
       </c>
-      <c r="F64" s="9">
+      <c r="K64" s="9">
         <v>-2066245</v>
       </c>
-      <c r="G64" s="9">
+      <c r="L64" s="9">
         <v>-1511650</v>
       </c>
-      <c r="H64" s="9">
+      <c r="M64" s="9">
         <v>-2291010</v>
       </c>
-      <c r="I64" s="9">
+      <c r="N64" s="9">
         <v>-2241112</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
+        <v>-836287</v>
+      </c>
+      <c r="F65" s="11">
+        <v>-1198138</v>
+      </c>
+      <c r="G65" s="11">
+        <v>-1741504</v>
+      </c>
+      <c r="H65" s="11">
+        <v>-863376</v>
+      </c>
+      <c r="I65" s="11">
+        <v>-1844450</v>
+      </c>
+      <c r="J65" s="11">
         <v>-1675511</v>
       </c>
-      <c r="F65" s="11">
+      <c r="K65" s="11">
         <v>-2216553</v>
       </c>
-      <c r="G65" s="11">
+      <c r="L65" s="11">
         <v>-1756196</v>
       </c>
-      <c r="H65" s="11">
+      <c r="M65" s="11">
         <v>-2952514</v>
       </c>
-      <c r="I65" s="11">
+      <c r="N65" s="11">
         <v>-2917040</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9">
+        <v>-440223</v>
+      </c>
+      <c r="F66" s="9">
+        <v>-543205</v>
+      </c>
+      <c r="G66" s="9">
+        <v>-1145176</v>
+      </c>
+      <c r="H66" s="9">
+        <v>-764181</v>
+      </c>
+      <c r="I66" s="9">
+        <v>-1290261</v>
+      </c>
+      <c r="J66" s="9">
         <v>-1043142</v>
       </c>
-      <c r="F66" s="9">
+      <c r="K66" s="9">
         <v>-1333897</v>
       </c>
-      <c r="G66" s="9">
+      <c r="L66" s="9">
         <v>-1005881</v>
       </c>
-      <c r="H66" s="9">
+      <c r="M66" s="9">
         <v>-1473672</v>
       </c>
-      <c r="I66" s="9">
+      <c r="N66" s="9">
         <v>-1480067</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15">
+        <v>-2411501</v>
+      </c>
+      <c r="F67" s="15">
+        <v>-3277435</v>
+      </c>
+      <c r="G67" s="15">
+        <v>-5065715</v>
+      </c>
+      <c r="H67" s="15">
+        <v>-2720928</v>
+      </c>
+      <c r="I67" s="15">
+        <v>-5137557</v>
+      </c>
+      <c r="J67" s="15">
         <v>-4248442</v>
       </c>
-      <c r="F67" s="15">
+      <c r="K67" s="15">
         <v>-5649902</v>
       </c>
-      <c r="G67" s="15">
+      <c r="L67" s="15">
         <v>-4286727</v>
       </c>
-      <c r="H67" s="15">
+      <c r="M67" s="15">
         <v>-6731654</v>
       </c>
-      <c r="I67" s="15">
+      <c r="N67" s="15">
         <v>-6644712</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1847,8 +2627,13 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1857,8 +2642,13 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1867,10 +2657,15 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -1889,8 +2684,23 @@
       <c r="I71" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1899,61 +2709,96 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="9">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" s="9">
+        <v>0</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M73" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N73" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D74" s="11"/>
-      <c r="E74" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>12</v>
+      <c r="E74" s="11">
+        <v>0</v>
+      </c>
+      <c r="F74" s="11">
+        <v>0</v>
+      </c>
+      <c r="G74" s="11">
+        <v>0</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9">
@@ -1965,128 +2810,218 @@
       <c r="G75" s="9">
         <v>0</v>
       </c>
-      <c r="H75" s="9">
-        <v>0</v>
+      <c r="H75" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I75" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="9">
+        <v>0</v>
+      </c>
+      <c r="K75" s="9">
+        <v>0</v>
+      </c>
+      <c r="L75" s="9">
+        <v>0</v>
+      </c>
+      <c r="M75" s="9">
+        <v>0</v>
+      </c>
+      <c r="N75" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="11">
+        <v>17</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" s="11">
         <v>11828</v>
       </c>
-      <c r="G76" s="11">
+      <c r="L76" s="11">
         <v>1639</v>
       </c>
-      <c r="H76" s="11">
+      <c r="M76" s="11">
         <v>11142</v>
       </c>
-      <c r="I76" s="11">
+      <c r="N76" s="11">
         <v>5424</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
+        <v>628834</v>
+      </c>
+      <c r="F77" s="9">
+        <v>689655</v>
+      </c>
+      <c r="G77" s="9">
+        <v>548923</v>
+      </c>
+      <c r="H77" s="9">
+        <v>383568</v>
+      </c>
+      <c r="I77" s="9">
+        <v>1033907</v>
+      </c>
+      <c r="J77" s="9">
         <v>626233</v>
       </c>
-      <c r="F77" s="9">
+      <c r="K77" s="9">
         <v>815127</v>
       </c>
-      <c r="G77" s="9">
+      <c r="L77" s="9">
         <v>740609</v>
       </c>
-      <c r="H77" s="9">
+      <c r="M77" s="9">
         <v>1276475</v>
       </c>
-      <c r="I77" s="9">
+      <c r="N77" s="9">
         <v>1575156</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
+        <v>433202</v>
+      </c>
+      <c r="F78" s="11">
+        <v>680319</v>
+      </c>
+      <c r="G78" s="11">
+        <v>483380</v>
+      </c>
+      <c r="H78" s="11">
+        <v>236956</v>
+      </c>
+      <c r="I78" s="11">
+        <v>481157</v>
+      </c>
+      <c r="J78" s="11">
         <v>369298</v>
       </c>
-      <c r="F78" s="11">
+      <c r="K78" s="11">
         <v>512808</v>
       </c>
-      <c r="G78" s="11">
+      <c r="L78" s="11">
         <v>445830</v>
       </c>
-      <c r="H78" s="11">
+      <c r="M78" s="11">
         <v>975641</v>
       </c>
-      <c r="I78" s="11">
+      <c r="N78" s="11">
         <v>1447963</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9">
+        <v>265947</v>
+      </c>
+      <c r="F79" s="9">
+        <v>339944</v>
+      </c>
+      <c r="G79" s="9">
+        <v>296022</v>
+      </c>
+      <c r="H79" s="9">
+        <v>90137</v>
+      </c>
+      <c r="I79" s="9">
+        <v>284377</v>
+      </c>
+      <c r="J79" s="9">
         <v>171063</v>
       </c>
-      <c r="F79" s="9">
+      <c r="K79" s="9">
         <v>338893</v>
       </c>
-      <c r="G79" s="9">
+      <c r="L79" s="9">
         <v>255623</v>
       </c>
-      <c r="H79" s="9">
+      <c r="M79" s="9">
         <v>444728</v>
       </c>
-      <c r="I79" s="9">
+      <c r="N79" s="9">
         <v>611920</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
       <c r="E80" s="15">
+        <v>1327983</v>
+      </c>
+      <c r="F80" s="15">
+        <v>1709918</v>
+      </c>
+      <c r="G80" s="15">
+        <v>1328325</v>
+      </c>
+      <c r="H80" s="15">
+        <v>710661</v>
+      </c>
+      <c r="I80" s="15">
+        <v>1799441</v>
+      </c>
+      <c r="J80" s="15">
         <v>1166594</v>
       </c>
-      <c r="F80" s="15">
+      <c r="K80" s="15">
         <v>1678656</v>
       </c>
-      <c r="G80" s="15">
+      <c r="L80" s="15">
         <v>1443701</v>
       </c>
-      <c r="H80" s="15">
+      <c r="M80" s="15">
         <v>2707986</v>
       </c>
-      <c r="I80" s="15">
+      <c r="N80" s="15">
         <v>3640463</v>
       </c>
     </row>

--- a/database/industries/shoyande/gharn/product/quarterly.xlsx
+++ b/database/industries/shoyande/gharn/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\gharn\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\gharn\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD61F76-A8D3-4F07-A31D-2FB8EC6F9C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5D3073-2764-4890-8A80-43843128590E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="37">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>سایر</t>
@@ -590,12 +590,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -610,7 +610,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -627,7 +627,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -644,7 +644,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -659,7 +659,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -676,7 +676,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -693,7 +693,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -708,7 +708,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -745,7 +745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -760,7 +760,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -771,11 +771,11 @@
       <c r="E10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>17</v>
@@ -783,11 +783,11 @@
       <c r="I10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>17</v>
@@ -799,7 +799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -814,8 +814,8 @@
       <c r="G11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>17</v>
+      <c r="H11" s="11">
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -859,8 +859,8 @@
       <c r="I12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>17</v>
+      <c r="J12" s="9">
+        <v>0</v>
       </c>
       <c r="K12" s="9">
         <v>0</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>21</v>
       </c>
@@ -884,37 +884,37 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>12669</v>
+        <v>15533</v>
       </c>
       <c r="F13" s="11">
-        <v>15533</v>
+        <v>15681</v>
       </c>
       <c r="G13" s="11">
-        <v>15681</v>
+        <v>7006</v>
       </c>
       <c r="H13" s="11">
-        <v>7006</v>
+        <v>14097</v>
       </c>
       <c r="I13" s="11">
-        <v>14097</v>
+        <v>8956</v>
       </c>
       <c r="J13" s="11">
-        <v>8956</v>
+        <v>11044</v>
       </c>
       <c r="K13" s="11">
-        <v>11044</v>
+        <v>8569</v>
       </c>
       <c r="L13" s="11">
-        <v>8569</v>
+        <v>12294</v>
       </c>
       <c r="M13" s="11">
-        <v>12294</v>
+        <v>10745</v>
       </c>
       <c r="N13" s="11">
-        <v>10745</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13751</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
@@ -923,37 +923,37 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>10765</v>
+        <v>12530</v>
       </c>
       <c r="F14" s="9">
-        <v>12530</v>
+        <v>14994</v>
       </c>
       <c r="G14" s="9">
-        <v>14994</v>
+        <v>7032</v>
       </c>
       <c r="H14" s="9">
-        <v>7032</v>
+        <v>13858</v>
       </c>
       <c r="I14" s="9">
-        <v>13858</v>
+        <v>11582</v>
       </c>
       <c r="J14" s="9">
-        <v>11582</v>
+        <v>13875</v>
       </c>
       <c r="K14" s="9">
-        <v>13875</v>
+        <v>10939</v>
       </c>
       <c r="L14" s="9">
-        <v>10939</v>
+        <v>16554</v>
       </c>
       <c r="M14" s="9">
-        <v>16554</v>
+        <v>18375</v>
       </c>
       <c r="N14" s="9">
-        <v>18375</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>22863</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>23</v>
       </c>
@@ -962,74 +962,74 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>9896</v>
+        <v>10844</v>
       </c>
       <c r="F15" s="11">
-        <v>10844</v>
+        <v>16269</v>
       </c>
       <c r="G15" s="11">
-        <v>16269</v>
+        <v>9014</v>
       </c>
       <c r="H15" s="11">
-        <v>9014</v>
+        <v>14294</v>
       </c>
       <c r="I15" s="11">
-        <v>14294</v>
+        <v>12167</v>
       </c>
       <c r="J15" s="11">
-        <v>12167</v>
+        <v>13396</v>
       </c>
       <c r="K15" s="11">
-        <v>13396</v>
+        <v>9984</v>
       </c>
       <c r="L15" s="11">
-        <v>9984</v>
+        <v>13507</v>
       </c>
       <c r="M15" s="11">
-        <v>13507</v>
+        <v>15055</v>
       </c>
       <c r="N15" s="11">
-        <v>15055</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16659</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>33330</v>
+        <v>38907</v>
       </c>
       <c r="F16" s="13">
-        <v>38907</v>
+        <v>46944</v>
       </c>
       <c r="G16" s="13">
-        <v>46944</v>
+        <v>23052</v>
       </c>
       <c r="H16" s="13">
-        <v>23052</v>
+        <v>42249</v>
       </c>
       <c r="I16" s="13">
-        <v>42249</v>
+        <v>32705</v>
       </c>
       <c r="J16" s="13">
-        <v>32705</v>
+        <v>38315</v>
       </c>
       <c r="K16" s="13">
-        <v>38315</v>
+        <v>29492</v>
       </c>
       <c r="L16" s="13">
-        <v>29492</v>
+        <v>42355</v>
       </c>
       <c r="M16" s="13">
-        <v>42355</v>
+        <v>44175</v>
       </c>
       <c r="N16" s="13">
-        <v>44175</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>53273</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1044,7 +1044,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1059,7 +1059,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1074,7 +1074,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>25</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1126,7 +1126,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>15</v>
       </c>
@@ -1149,11 +1149,11 @@
       <c r="I22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0</v>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L22" s="9" t="s">
         <v>17</v>
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>26</v>
       </c>
@@ -1179,8 +1179,8 @@
       <c r="F23" s="11">
         <v>0</v>
       </c>
-      <c r="G23" s="11">
-        <v>0</v>
+      <c r="G23" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>17</v>
@@ -1204,7 +1204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>18</v>
       </c>
@@ -1216,20 +1216,20 @@
       <c r="F24" s="9">
         <v>0</v>
       </c>
-      <c r="G24" s="9">
-        <v>0</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>17</v>
+      <c r="G24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
       </c>
       <c r="I24" s="9">
         <v>0</v>
       </c>
-      <c r="J24" s="9">
-        <v>0</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>17</v>
+      <c r="J24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0</v>
       </c>
       <c r="L24" s="9">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>19</v>
       </c>
@@ -1267,8 +1267,8 @@
       <c r="J25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K25" s="11" t="s">
-        <v>17</v>
+      <c r="K25" s="11">
+        <v>0</v>
       </c>
       <c r="L25" s="11">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>21</v>
       </c>
@@ -1289,37 +1289,37 @@
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
-        <v>13468</v>
+        <v>14663</v>
       </c>
       <c r="F26" s="9">
-        <v>14663</v>
+        <v>16593</v>
       </c>
       <c r="G26" s="9">
-        <v>16593</v>
+        <v>7060</v>
       </c>
       <c r="H26" s="9">
-        <v>7060</v>
+        <v>13403</v>
       </c>
       <c r="I26" s="9">
-        <v>13403</v>
-      </c>
-      <c r="J26" s="9">
         <v>8900</v>
       </c>
-      <c r="K26" s="9" t="s">
-        <v>17</v>
+      <c r="J26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="9">
+        <v>7780</v>
       </c>
       <c r="L26" s="9">
-        <v>7780</v>
+        <v>11630</v>
       </c>
       <c r="M26" s="9">
-        <v>11630</v>
+        <v>10848</v>
       </c>
       <c r="N26" s="9">
-        <v>10848</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14569</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>22</v>
       </c>
@@ -1328,37 +1328,37 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>10888</v>
+        <v>12579</v>
       </c>
       <c r="F27" s="11">
-        <v>12579</v>
+        <v>15275</v>
       </c>
       <c r="G27" s="11">
-        <v>15275</v>
+        <v>7170</v>
       </c>
       <c r="H27" s="11">
-        <v>7170</v>
+        <v>12854</v>
       </c>
       <c r="I27" s="11">
-        <v>12854</v>
-      </c>
-      <c r="J27" s="11">
         <v>11009</v>
       </c>
-      <c r="K27" s="11" t="s">
-        <v>17</v>
+      <c r="J27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="11">
+        <v>10309</v>
       </c>
       <c r="L27" s="11">
-        <v>10309</v>
+        <v>16972</v>
       </c>
       <c r="M27" s="11">
-        <v>16972</v>
+        <v>16982</v>
       </c>
       <c r="N27" s="11">
-        <v>16982</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>24186</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>23</v>
       </c>
@@ -1367,74 +1367,74 @@
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9">
-        <v>9835</v>
+        <v>10311</v>
       </c>
       <c r="F28" s="9">
-        <v>10311</v>
+        <v>15132</v>
       </c>
       <c r="G28" s="9">
-        <v>15132</v>
+        <v>8444</v>
       </c>
       <c r="H28" s="9">
-        <v>8444</v>
+        <v>13754</v>
       </c>
       <c r="I28" s="9">
-        <v>13754</v>
-      </c>
-      <c r="J28" s="9">
         <v>11508</v>
       </c>
-      <c r="K28" s="9" t="s">
-        <v>17</v>
+      <c r="J28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="9">
+        <v>9172</v>
       </c>
       <c r="L28" s="9">
-        <v>9172</v>
+        <v>13504</v>
       </c>
       <c r="M28" s="9">
-        <v>13504</v>
+        <v>14224</v>
       </c>
       <c r="N28" s="9">
-        <v>14224</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17853</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15">
-        <v>34191</v>
+        <v>37553</v>
       </c>
       <c r="F29" s="15">
-        <v>37553</v>
+        <v>47000</v>
       </c>
       <c r="G29" s="15">
-        <v>47000</v>
+        <v>22674</v>
       </c>
       <c r="H29" s="15">
-        <v>22674</v>
+        <v>40011</v>
       </c>
       <c r="I29" s="15">
-        <v>40011</v>
+        <v>31417</v>
       </c>
       <c r="J29" s="15">
-        <v>31417</v>
+        <v>0</v>
       </c>
       <c r="K29" s="15">
-        <v>0</v>
+        <v>27261</v>
       </c>
       <c r="L29" s="15">
-        <v>27261</v>
+        <v>42106</v>
       </c>
       <c r="M29" s="15">
-        <v>42106</v>
+        <v>42054</v>
       </c>
       <c r="N29" s="15">
-        <v>42054</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>56608</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1449,7 +1449,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1464,7 +1464,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1479,7 +1479,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>28</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1531,7 +1531,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>15</v>
       </c>
@@ -1554,11 +1554,11 @@
       <c r="I35" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J35" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" s="9">
-        <v>0</v>
+      <c r="J35" s="9">
+        <v>0</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L35" s="9" t="s">
         <v>17</v>
@@ -1570,7 +1570,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>26</v>
       </c>
@@ -1584,8 +1584,8 @@
       <c r="F36" s="11">
         <v>0</v>
       </c>
-      <c r="G36" s="11">
-        <v>0</v>
+      <c r="G36" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>17</v>
@@ -1609,7 +1609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>18</v>
       </c>
@@ -1623,20 +1623,20 @@
       <c r="F37" s="9">
         <v>0</v>
       </c>
-      <c r="G37" s="9">
-        <v>0</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>17</v>
+      <c r="G37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0</v>
       </c>
       <c r="I37" s="9">
         <v>0</v>
       </c>
-      <c r="J37" s="9">
-        <v>0</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>17</v>
+      <c r="J37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0</v>
       </c>
       <c r="L37" s="9">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>19</v>
       </c>
@@ -1674,20 +1674,20 @@
       <c r="J38" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="11" t="s">
-        <v>17</v>
+      <c r="K38" s="11">
+        <v>14639</v>
       </c>
       <c r="L38" s="11">
-        <v>14639</v>
+        <v>25600</v>
       </c>
       <c r="M38" s="11">
-        <v>25600</v>
+        <v>11917</v>
       </c>
       <c r="N38" s="11">
-        <v>11917</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13085</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>21</v>
       </c>
@@ -1696,37 +1696,37 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
-        <v>1763825</v>
+        <v>2225747</v>
       </c>
       <c r="F39" s="9">
-        <v>2225747</v>
+        <v>2727958</v>
       </c>
       <c r="G39" s="9">
-        <v>2727958</v>
+        <v>1476939</v>
       </c>
       <c r="H39" s="9">
-        <v>1476939</v>
+        <v>3036753</v>
       </c>
       <c r="I39" s="9">
-        <v>3036753</v>
-      </c>
-      <c r="J39" s="9">
         <v>2156022</v>
       </c>
-      <c r="K39" s="9" t="s">
-        <v>17</v>
+      <c r="J39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="9">
+        <v>2252259</v>
       </c>
       <c r="L39" s="9">
-        <v>2252259</v>
+        <v>3567485</v>
       </c>
       <c r="M39" s="9">
-        <v>3567485</v>
+        <v>3816268</v>
       </c>
       <c r="N39" s="9">
-        <v>3816268</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4284127</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>22</v>
       </c>
@@ -1735,37 +1735,37 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>1269489</v>
+        <v>1878457</v>
       </c>
       <c r="F40" s="11">
-        <v>1878457</v>
+        <v>2224884</v>
       </c>
       <c r="G40" s="11">
-        <v>2224884</v>
+        <v>1100332</v>
       </c>
       <c r="H40" s="11">
-        <v>1100332</v>
+        <v>2325607</v>
       </c>
       <c r="I40" s="11">
-        <v>2325607</v>
-      </c>
-      <c r="J40" s="11">
         <v>2044809</v>
       </c>
-      <c r="K40" s="11" t="s">
-        <v>17</v>
+      <c r="J40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="11">
+        <v>2202026</v>
       </c>
       <c r="L40" s="11">
-        <v>2202026</v>
+        <v>3928155</v>
       </c>
       <c r="M40" s="11">
-        <v>3928155</v>
+        <v>4365003</v>
       </c>
       <c r="N40" s="11">
-        <v>4365003</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5330764</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>23</v>
       </c>
@@ -1774,74 +1774,74 @@
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
-        <v>706170</v>
+        <v>883149</v>
       </c>
       <c r="F41" s="9">
-        <v>883149</v>
+        <v>1441198</v>
       </c>
       <c r="G41" s="9">
-        <v>1441198</v>
+        <v>854318</v>
       </c>
       <c r="H41" s="9">
-        <v>854318</v>
+        <v>1574638</v>
       </c>
       <c r="I41" s="9">
-        <v>1574638</v>
-      </c>
-      <c r="J41" s="9">
         <v>1214205</v>
       </c>
-      <c r="K41" s="9" t="s">
-        <v>17</v>
+      <c r="J41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="9">
+        <v>1261504</v>
       </c>
       <c r="L41" s="9">
-        <v>1261504</v>
+        <v>1918400</v>
       </c>
       <c r="M41" s="9">
-        <v>1918400</v>
+        <v>2091987</v>
       </c>
       <c r="N41" s="9">
-        <v>2091987</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2609196</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15">
-        <v>3739484</v>
+        <v>4987353</v>
       </c>
       <c r="F42" s="15">
-        <v>4987353</v>
+        <v>6394040</v>
       </c>
       <c r="G42" s="15">
-        <v>6394040</v>
+        <v>3431589</v>
       </c>
       <c r="H42" s="15">
-        <v>3431589</v>
+        <v>6936998</v>
       </c>
       <c r="I42" s="15">
-        <v>6936998</v>
+        <v>5415036</v>
       </c>
       <c r="J42" s="15">
-        <v>5415036</v>
+        <v>0</v>
       </c>
       <c r="K42" s="15">
-        <v>0</v>
+        <v>5730428</v>
       </c>
       <c r="L42" s="15">
-        <v>5730428</v>
+        <v>9439640</v>
       </c>
       <c r="M42" s="15">
-        <v>9439640</v>
+        <v>10285175</v>
       </c>
       <c r="N42" s="15">
-        <v>10285175</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12237172</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1856,7 +1856,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1871,7 +1871,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1886,7 +1886,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>30</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1938,7 +1938,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>15</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>26</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>18</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>19</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>21</v>
       </c>
@@ -2103,37 +2103,37 @@
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
-        <v>130964137</v>
+        <v>151793426</v>
       </c>
       <c r="F52" s="9">
-        <v>151793426</v>
+        <v>164404146</v>
       </c>
       <c r="G52" s="9">
-        <v>164404146</v>
+        <v>209198159</v>
       </c>
       <c r="H52" s="9">
-        <v>209198159</v>
+        <v>226572633</v>
       </c>
       <c r="I52" s="9">
-        <v>226572633</v>
+        <v>237238336</v>
       </c>
       <c r="J52" s="9">
-        <v>237238336</v>
+        <v>243832783</v>
       </c>
       <c r="K52" s="9">
-        <v>243832783</v>
+        <v>289493445</v>
       </c>
       <c r="L52" s="9">
-        <v>289493445</v>
+        <v>306748495</v>
       </c>
       <c r="M52" s="9">
-        <v>306748495</v>
+        <v>351794617</v>
       </c>
       <c r="N52" s="9">
-        <v>351794617</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>294057725</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>22</v>
       </c>
@@ -2142,37 +2142,37 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>116595242</v>
+        <v>149332777</v>
       </c>
       <c r="F53" s="11">
-        <v>149332777</v>
+        <v>145655254</v>
       </c>
       <c r="G53" s="11">
-        <v>145655254</v>
+        <v>153463319</v>
       </c>
       <c r="H53" s="11">
-        <v>153463319</v>
+        <v>180924771</v>
       </c>
       <c r="I53" s="11">
-        <v>180924771</v>
+        <v>185739758</v>
       </c>
       <c r="J53" s="11">
-        <v>185739758</v>
+        <v>186113945</v>
       </c>
       <c r="K53" s="11">
-        <v>186113945</v>
+        <v>213602289</v>
       </c>
       <c r="L53" s="11">
-        <v>213602289</v>
+        <v>231449152</v>
       </c>
       <c r="M53" s="11">
-        <v>231449152</v>
+        <v>257037039</v>
       </c>
       <c r="N53" s="11">
-        <v>257037039</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>220407012</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>23</v>
       </c>
@@ -2181,37 +2181,37 @@
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9">
-        <v>71801729</v>
+        <v>85651149</v>
       </c>
       <c r="F54" s="9">
-        <v>85651149</v>
+        <v>95241739</v>
       </c>
       <c r="G54" s="9">
-        <v>95241739</v>
+        <v>101174562</v>
       </c>
       <c r="H54" s="9">
-        <v>101174562</v>
+        <v>114485822</v>
       </c>
       <c r="I54" s="9">
-        <v>114485822</v>
+        <v>105518815</v>
       </c>
       <c r="J54" s="9">
-        <v>105518815</v>
+        <v>114207005</v>
       </c>
       <c r="K54" s="9">
-        <v>114207005</v>
+        <v>137538596</v>
       </c>
       <c r="L54" s="9">
-        <v>137538596</v>
+        <v>142061611</v>
       </c>
       <c r="M54" s="9">
-        <v>142061611</v>
+        <v>147074452</v>
       </c>
       <c r="N54" s="9">
-        <v>147074452</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>146148883</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2226,7 +2226,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2241,7 +2241,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2256,7 +2256,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>35</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2308,7 +2308,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>15</v>
       </c>
@@ -2331,11 +2331,11 @@
       <c r="I60" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J60" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K60" s="9">
-        <v>0</v>
+      <c r="J60" s="9">
+        <v>0</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L60" s="9" t="s">
         <v>17</v>
@@ -2347,7 +2347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>26</v>
       </c>
@@ -2361,8 +2361,8 @@
       <c r="F61" s="11">
         <v>0</v>
       </c>
-      <c r="G61" s="11">
-        <v>0</v>
+      <c r="G61" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="H61" s="11" t="s">
         <v>17</v>
@@ -2386,7 +2386,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>18</v>
       </c>
@@ -2400,11 +2400,11 @@
       <c r="F62" s="9">
         <v>0</v>
       </c>
-      <c r="G62" s="9">
-        <v>0</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>17</v>
+      <c r="G62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" s="9">
+        <v>0</v>
       </c>
       <c r="I62" s="9">
         <v>0</v>
@@ -2425,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>19</v>
       </c>
@@ -2448,23 +2448,23 @@
       <c r="I63" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J63" s="11" t="s">
-        <v>17</v>
+      <c r="J63" s="11">
+        <v>-33207</v>
       </c>
       <c r="K63" s="11">
-        <v>-33207</v>
+        <v>-13000</v>
       </c>
       <c r="L63" s="11">
-        <v>-13000</v>
+        <v>-14458</v>
       </c>
       <c r="M63" s="11">
-        <v>-14458</v>
+        <v>-6493</v>
       </c>
       <c r="N63" s="11">
-        <v>-6493</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-10376</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>21</v>
       </c>
@@ -2473,37 +2473,37 @@
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
-        <v>-1134991</v>
+        <v>-1536092</v>
       </c>
       <c r="F64" s="9">
-        <v>-1536092</v>
+        <v>-2179035</v>
       </c>
       <c r="G64" s="9">
-        <v>-2179035</v>
+        <v>-1093371</v>
       </c>
       <c r="H64" s="9">
-        <v>-1093371</v>
+        <v>-2002846</v>
       </c>
       <c r="I64" s="9">
-        <v>-2002846</v>
+        <v>-1529789</v>
       </c>
       <c r="J64" s="9">
-        <v>-1529789</v>
+        <v>-2066245</v>
       </c>
       <c r="K64" s="9">
-        <v>-2066245</v>
+        <v>-1511650</v>
       </c>
       <c r="L64" s="9">
-        <v>-1511650</v>
+        <v>-2291010</v>
       </c>
       <c r="M64" s="9">
-        <v>-2291010</v>
+        <v>-2241112</v>
       </c>
       <c r="N64" s="9">
-        <v>-2241112</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2883703</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>22</v>
       </c>
@@ -2512,37 +2512,37 @@
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
-        <v>-836287</v>
+        <v>-1198138</v>
       </c>
       <c r="F65" s="11">
-        <v>-1198138</v>
+        <v>-1741504</v>
       </c>
       <c r="G65" s="11">
-        <v>-1741504</v>
+        <v>-863376</v>
       </c>
       <c r="H65" s="11">
-        <v>-863376</v>
+        <v>-1844450</v>
       </c>
       <c r="I65" s="11">
-        <v>-1844450</v>
+        <v>-1675511</v>
       </c>
       <c r="J65" s="11">
-        <v>-1675511</v>
+        <v>-2216553</v>
       </c>
       <c r="K65" s="11">
-        <v>-2216553</v>
+        <v>-1756196</v>
       </c>
       <c r="L65" s="11">
-        <v>-1756196</v>
+        <v>-2952514</v>
       </c>
       <c r="M65" s="11">
-        <v>-2952514</v>
+        <v>-2917040</v>
       </c>
       <c r="N65" s="11">
-        <v>-2917040</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3733122</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>23</v>
       </c>
@@ -2551,74 +2551,74 @@
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9">
-        <v>-440223</v>
+        <v>-543205</v>
       </c>
       <c r="F66" s="9">
-        <v>-543205</v>
+        <v>-1145176</v>
       </c>
       <c r="G66" s="9">
-        <v>-1145176</v>
+        <v>-764181</v>
       </c>
       <c r="H66" s="9">
-        <v>-764181</v>
+        <v>-1290261</v>
       </c>
       <c r="I66" s="9">
-        <v>-1290261</v>
+        <v>-1043142</v>
       </c>
       <c r="J66" s="9">
-        <v>-1043142</v>
+        <v>-1333897</v>
       </c>
       <c r="K66" s="9">
-        <v>-1333897</v>
+        <v>-1005881</v>
       </c>
       <c r="L66" s="9">
-        <v>-1005881</v>
+        <v>-1473672</v>
       </c>
       <c r="M66" s="9">
-        <v>-1473672</v>
+        <v>-1480067</v>
       </c>
       <c r="N66" s="9">
-        <v>-1480067</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2027016</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15">
-        <v>-2411501</v>
+        <v>-3277435</v>
       </c>
       <c r="F67" s="15">
-        <v>-3277435</v>
+        <v>-5065715</v>
       </c>
       <c r="G67" s="15">
-        <v>-5065715</v>
+        <v>-2720928</v>
       </c>
       <c r="H67" s="15">
-        <v>-2720928</v>
+        <v>-5137557</v>
       </c>
       <c r="I67" s="15">
-        <v>-5137557</v>
+        <v>-4248442</v>
       </c>
       <c r="J67" s="15">
-        <v>-4248442</v>
+        <v>-5649902</v>
       </c>
       <c r="K67" s="15">
-        <v>-5649902</v>
+        <v>-4286727</v>
       </c>
       <c r="L67" s="15">
-        <v>-4286727</v>
+        <v>-6731654</v>
       </c>
       <c r="M67" s="15">
-        <v>-6731654</v>
+        <v>-6644712</v>
       </c>
       <c r="N67" s="15">
-        <v>-6644712</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-8654217</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2633,7 +2633,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2648,7 +2648,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2663,7 +2663,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>36</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2715,7 +2715,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>15</v>
       </c>
@@ -2738,11 +2738,11 @@
       <c r="I73" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J73" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K73" s="9">
-        <v>0</v>
+      <c r="J73" s="9">
+        <v>0</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L73" s="9" t="s">
         <v>17</v>
@@ -2754,7 +2754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>26</v>
       </c>
@@ -2768,8 +2768,8 @@
       <c r="F74" s="11">
         <v>0</v>
       </c>
-      <c r="G74" s="11">
-        <v>0</v>
+      <c r="G74" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="H74" s="11" t="s">
         <v>17</v>
@@ -2793,7 +2793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>18</v>
       </c>
@@ -2807,11 +2807,11 @@
       <c r="F75" s="9">
         <v>0</v>
       </c>
-      <c r="G75" s="9">
-        <v>0</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>17</v>
+      <c r="G75" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="9">
+        <v>0</v>
       </c>
       <c r="I75" s="9">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>19</v>
       </c>
@@ -2855,23 +2855,23 @@
       <c r="I76" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J76" s="11" t="s">
-        <v>17</v>
+      <c r="J76" s="11">
+        <v>11828</v>
       </c>
       <c r="K76" s="11">
-        <v>11828</v>
+        <v>1639</v>
       </c>
       <c r="L76" s="11">
-        <v>1639</v>
+        <v>11142</v>
       </c>
       <c r="M76" s="11">
-        <v>11142</v>
+        <v>5424</v>
       </c>
       <c r="N76" s="11">
-        <v>5424</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>21</v>
       </c>
@@ -2880,37 +2880,37 @@
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
-        <v>628834</v>
+        <v>689655</v>
       </c>
       <c r="F77" s="9">
-        <v>689655</v>
+        <v>548923</v>
       </c>
       <c r="G77" s="9">
-        <v>548923</v>
+        <v>383568</v>
       </c>
       <c r="H77" s="9">
-        <v>383568</v>
+        <v>1033907</v>
       </c>
       <c r="I77" s="9">
-        <v>1033907</v>
+        <v>626233</v>
       </c>
       <c r="J77" s="9">
-        <v>626233</v>
+        <v>815127</v>
       </c>
       <c r="K77" s="9">
-        <v>815127</v>
+        <v>740609</v>
       </c>
       <c r="L77" s="9">
-        <v>740609</v>
+        <v>1276475</v>
       </c>
       <c r="M77" s="9">
-        <v>1276475</v>
+        <v>1575156</v>
       </c>
       <c r="N77" s="9">
-        <v>1575156</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1400424</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>22</v>
       </c>
@@ -2919,37 +2919,37 @@
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>433202</v>
+        <v>680319</v>
       </c>
       <c r="F78" s="11">
-        <v>680319</v>
+        <v>483380</v>
       </c>
       <c r="G78" s="11">
-        <v>483380</v>
+        <v>236956</v>
       </c>
       <c r="H78" s="11">
-        <v>236956</v>
+        <v>481157</v>
       </c>
       <c r="I78" s="11">
-        <v>481157</v>
+        <v>369298</v>
       </c>
       <c r="J78" s="11">
-        <v>369298</v>
+        <v>512808</v>
       </c>
       <c r="K78" s="11">
-        <v>512808</v>
+        <v>445830</v>
       </c>
       <c r="L78" s="11">
-        <v>445830</v>
+        <v>975641</v>
       </c>
       <c r="M78" s="11">
-        <v>975641</v>
+        <v>1447963</v>
       </c>
       <c r="N78" s="11">
-        <v>1447963</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1597642</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>23</v>
       </c>
@@ -2958,71 +2958,71 @@
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9">
-        <v>265947</v>
+        <v>339944</v>
       </c>
       <c r="F79" s="9">
-        <v>339944</v>
+        <v>296022</v>
       </c>
       <c r="G79" s="9">
-        <v>296022</v>
+        <v>90137</v>
       </c>
       <c r="H79" s="9">
-        <v>90137</v>
+        <v>284377</v>
       </c>
       <c r="I79" s="9">
-        <v>284377</v>
+        <v>171063</v>
       </c>
       <c r="J79" s="9">
-        <v>171063</v>
+        <v>338893</v>
       </c>
       <c r="K79" s="9">
-        <v>338893</v>
+        <v>255623</v>
       </c>
       <c r="L79" s="9">
-        <v>255623</v>
+        <v>444728</v>
       </c>
       <c r="M79" s="9">
-        <v>444728</v>
+        <v>611920</v>
       </c>
       <c r="N79" s="9">
-        <v>611920</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>582180</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
       <c r="E80" s="15">
-        <v>1327983</v>
+        <v>1709918</v>
       </c>
       <c r="F80" s="15">
-        <v>1709918</v>
+        <v>1328325</v>
       </c>
       <c r="G80" s="15">
-        <v>1328325</v>
+        <v>710661</v>
       </c>
       <c r="H80" s="15">
-        <v>710661</v>
+        <v>1799441</v>
       </c>
       <c r="I80" s="15">
-        <v>1799441</v>
+        <v>1166594</v>
       </c>
       <c r="J80" s="15">
-        <v>1166594</v>
+        <v>1678656</v>
       </c>
       <c r="K80" s="15">
-        <v>1678656</v>
+        <v>1443701</v>
       </c>
       <c r="L80" s="15">
-        <v>1443701</v>
+        <v>2707986</v>
       </c>
       <c r="M80" s="15">
-        <v>2707986</v>
+        <v>3640463</v>
       </c>
       <c r="N80" s="15">
-        <v>3640463</v>
+        <v>3582955</v>
       </c>
     </row>
   </sheetData>
